--- a/biology/Botanique/Tryphine/Tryphine.xlsx
+++ b/biology/Botanique/Tryphine/Tryphine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tryphine  en botanique, est un composé de nature lipidique[1] mais qui contient également des glycoprotéines. Elle ne se dépose pas de manière uniforme autour du grain de pollen, elle se dépose au niveau des ornementations de l'exine, au niveau des cavités de la paroi, cela à un rôle important dans la reconnaissance pollen-stigmate.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tryphine  en botanique, est un composé de nature lipidique mais qui contient également des glycoprotéines. Elle ne se dépose pas de manière uniforme autour du grain de pollen, elle se dépose au niveau des ornementations de l'exine, au niveau des cavités de la paroi, cela à un rôle important dans la reconnaissance pollen-stigmate.
 </t>
         </is>
       </c>
